--- a/LeaveReport-2024-6-14.xlsx
+++ b/LeaveReport-2024-6-14.xlsx
@@ -13,9 +13,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
-  <si>
-    <t xml:space="preserve">Leave Report For Yukon Uganda</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+  <si>
+    <t xml:space="preserve">Leave Overview 2025 For Yukon Uganda</t>
   </si>
   <si>
     <t xml:space="preserve">Employee Name</t>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t xml:space="preserve">bazirakye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Overview 2024 For Yukon Uganda</t>
   </si>
 </sst>
 </file>
@@ -244,7 +247,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -255,7 +258,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
